--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-883673.1736923321</v>
+        <v>-886221.8308783527</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98.61547224345958</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>189.2395865667831</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>273.1222025221958</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>13.42874471570651</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>83.41943806107159</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>271.0682275916731</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>85.08822005544783</v>
       </c>
       <c r="V7" t="n">
-        <v>187.6171084012677</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>271.7757913324324</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.78463707074202</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>198.5108295394024</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881289</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856522</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.36569740310382</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>90.14863908058142</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.8170508184374</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>176.519656284926</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518788</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3175246302647</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>210.5950626772371</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>84.87800743369252</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>18.50276072357029</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.4286493356919</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592113</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.47457675531643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.5793400412178</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053457</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869788</v>
+        <v>164.2607468869783</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036693</v>
+        <v>151.6755878036688</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>130.8627293516106</v>
+        <v>56.17220388510178</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279727</v>
+        <v>129.8498147279722</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973103</v>
+        <v>149.9529049973098</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512653</v>
+        <v>124.7234795512649</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>65.69460302360652</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516311</v>
+        <v>50.80401341516266</v>
       </c>
       <c r="S34" t="n">
-        <v>165.455052706686</v>
+        <v>165.4550527066856</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323297</v>
+        <v>201.8342170323292</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942856</v>
+        <v>270.6132410942851</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288695</v>
+        <v>236.566410028869</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416324</v>
+        <v>270.951765041632</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940786</v>
+        <v>210.1384220940781</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.0174976142244</v>
+        <v>203.0134200571358</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808225</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.127582679363</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C2" t="n">
-        <v>821.1650657389512</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D2" t="n">
-        <v>821.1650657389509</v>
+        <v>920.7766538636581</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>920.7766538636579</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,10 +4343,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3024.164055594061</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2693.10116825049</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2340.332512980376</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1966.866754719296</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>1576.727422743485</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,10 +4410,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2392.599276780832</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C4" t="n">
-        <v>2223.663093852925</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D4" t="n">
-        <v>2073.546454440589</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E4" t="n">
-        <v>1925.633360858196</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F4" t="n">
-        <v>1778.743413360286</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735005</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952863</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952863</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
         <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
         <v>3247.995525456656</v>
@@ -4513,25 +4513,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="U4" t="n">
-        <v>3049.724808960488</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="V4" t="n">
-        <v>2795.040320754601</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="W4" t="n">
-        <v>2795.040320754601</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="X4" t="n">
-        <v>2795.040320754601</v>
+        <v>2892.365997936256</v>
       </c>
       <c r="Y4" t="n">
-        <v>2574.247741611071</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116517</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.413029176106</v>
+        <v>1137.401303008948</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.413029176106</v>
+        <v>779.1356044021979</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>393.3473518039537</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1649.660966889614</v>
       </c>
       <c r="V7" t="n">
-        <v>945.3964936596652</v>
+        <v>1394.976478683727</v>
       </c>
       <c r="W7" t="n">
-        <v>945.3964936596652</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="X7" t="n">
-        <v>945.3964936596652</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="Y7" t="n">
-        <v>945.3964936596652</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1548.76669086687</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1179.804173926458</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1179.804173926458</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>794.0159213282136</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>383.030016538606</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.366530930991</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4881,52 +4881,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.676735765777</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.68718486776</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y10" t="n">
-        <v>844.89460572423</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="11">
@@ -5027,43 +5027,43 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,67 +5173,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784064</v>
+        <v>931.4710609784058</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504995</v>
+        <v>762.5348780504989</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381638</v>
+        <v>612.4182386381631</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557706</v>
+        <v>464.5051450557701</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.903366400058</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>2106.00331409304</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1851.318825887153</v>
       </c>
       <c r="W13" t="n">
         <v>1561.901655850193</v>
@@ -5242,7 +5242,7 @@
         <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1113.119525808645</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536382</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257313</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133955</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5464,22 +5464,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.198385783859</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1963.123159128057</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.43867092217</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.02150088521</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>555.8158034133954</v>
+        <v>800.6374272687976</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1475.663568322143</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1186.246398285183</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>958.2568473871653</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>737.4642682436352</v>
+        <v>945.4026036630045</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246301</v>
+        <v>803.2707707770315</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967231</v>
+        <v>634.3345878491247</v>
       </c>
       <c r="D22" t="n">
-        <v>551.2636521843872</v>
+        <v>484.217948436789</v>
       </c>
       <c r="E22" t="n">
-        <v>403.350558601994</v>
+        <v>336.3048548543958</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>336.3048548543958</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.7575184984</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.96493935487</v>
+        <v>984.9192356072713</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>549.6145409888043</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703113</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>697.5276345711974</v>
+        <v>768.538088945958</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>599.6019060180511</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>599.6019060180511</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>451.6888124356579</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356579</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>284.4927131505378</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>142.7808819927359</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>697.5276345711974</v>
+        <v>950.1865537761977</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908943</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490408</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>787.8212251003238</v>
+        <v>778.7344347539558</v>
       </c>
       <c r="C34" t="n">
-        <v>634.613560652173</v>
+        <v>625.5267703058055</v>
       </c>
       <c r="D34" t="n">
-        <v>634.613560652173</v>
+        <v>625.5267703058055</v>
       </c>
       <c r="E34" t="n">
-        <v>502.4289855495359</v>
+        <v>568.7871704218643</v>
       </c>
       <c r="F34" t="n">
-        <v>371.2675565313817</v>
+        <v>437.6257414037105</v>
       </c>
       <c r="G34" t="n">
-        <v>219.7999757260177</v>
+        <v>286.1581605983471</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>160.1748479203017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403048</v>
+        <v>189.4682024403051</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278523</v>
+        <v>466.5729859278529</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658015</v>
+        <v>872.3871010658024</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758845</v>
+        <v>1309.812324758846</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380862</v>
+        <v>1742.637717380864</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051856</v>
+        <v>2127.582519051859</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587424</v>
+        <v>2435.673495587427</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276332</v>
+        <v>2570.287251276336</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008491</v>
+        <v>2518.970066008495</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143151</v>
+        <v>2351.843750143155</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645849</v>
+        <v>2147.970803645853</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469803</v>
+        <v>1874.624095469808</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743671</v>
+        <v>1635.668125743677</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186467</v>
+        <v>1361.979474186473</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768206</v>
+        <v>1149.718441768212</v>
       </c>
       <c r="Y34" t="n">
-        <v>953.7411714508073</v>
+        <v>944.6543811044389</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345466</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384012</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>308.2605734982519</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>61.75558539211887</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>13.0896356834171</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>273.0942536208845</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922659</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.00954930701785</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>196.0358353086627</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016387</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>24.58839950885091</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>36.51445555167257</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>41.54258064659086</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>60.54304058923873</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>147.0213775686986</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.40333084624541</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>139.4693302300328</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>32.79125956324911</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.005313310876971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347513</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232538</v>
+        <v>133.0442397232533</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>74.69052546650836</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360697</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.995922442911835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1214661.791232322</v>
+        <v>1214661.791232323</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187548.4044340064</v>
+        <v>187548.4044340063</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126779</v>
@@ -26320,7 +26320,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
@@ -26332,10 +26332,10 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
@@ -26350,10 +26350,10 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596684</v>
+        <v>12456.98663596722</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317673</v>
+        <v>92025.75929317639</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712841</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815714</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815713</v>
       </c>
-      <c r="D4" t="n">
-        <v>90964.0109881571</v>
-      </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="L4" t="n">
-        <v>16900.68797146868</v>
+        <v>16900.68797146888</v>
       </c>
       <c r="M4" t="n">
         <v>19767.83547989928</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="O4" t="n">
         <v>19767.83547989928</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989928</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1260730.516852108</v>
+        <v>-1261078.135781914</v>
       </c>
       <c r="C6" t="n">
-        <v>26888.53516312748</v>
+        <v>26888.53516312745</v>
       </c>
       <c r="D6" t="n">
-        <v>26888.53516312756</v>
+        <v>26888.53516312734</v>
       </c>
       <c r="E6" t="n">
-        <v>-216346.6529333167</v>
+        <v>-216381.390858752</v>
       </c>
       <c r="F6" t="n">
-        <v>109065.8088740388</v>
+        <v>109031.0709486031</v>
       </c>
       <c r="G6" t="n">
-        <v>109065.8088740388</v>
+        <v>109031.0709486031</v>
       </c>
       <c r="H6" t="n">
-        <v>109065.8088740388</v>
+        <v>109031.0709486031</v>
       </c>
       <c r="I6" t="n">
-        <v>109065.8088740388</v>
+        <v>109031.0709486031</v>
       </c>
       <c r="J6" t="n">
-        <v>-108465.3935232387</v>
+        <v>-108500.1314486744</v>
       </c>
       <c r="K6" t="n">
-        <v>109065.8088740389</v>
+        <v>109031.0709486031</v>
       </c>
       <c r="L6" t="n">
-        <v>92626.1748192089</v>
+        <v>92613.71073329692</v>
       </c>
       <c r="M6" t="n">
-        <v>10828.77608568667</v>
+        <v>10828.77608568702</v>
       </c>
       <c r="N6" t="n">
-        <v>102854.5353788636</v>
+        <v>102854.5353788635</v>
       </c>
       <c r="O6" t="n">
         <v>102854.5353788634</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197081139</v>
+        <v>8.713414197080686</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>298.5109320111902</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>135.8078181500383</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>201.123618150165</v>
       </c>
       <c r="V7" t="n">
-        <v>64.52053492256027</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>139.145934321021</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>158.5207149607589</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.0473431111953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.19882584963474</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28260,13 +28260,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.100480448472096e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>5.933031843596837e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495855</v>
+        <v>15.57123329495902</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791196</v>
+        <v>96.61771655791237</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045936</v>
+        <v>279.903821704594</v>
       </c>
       <c r="L34" t="n">
-        <v>409.91324761409</v>
+        <v>409.9132476140904</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960037</v>
+        <v>441.8436602960041</v>
       </c>
       <c r="N34" t="n">
-        <v>437.197366284866</v>
+        <v>437.1973662848665</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010041</v>
+        <v>388.8331330010045</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015836</v>
+        <v>311.203006601584</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948569</v>
+        <v>135.9734905948574</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
